--- a/doc/ship/Ship.xlsx
+++ b/doc/ship/Ship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151A8C4-DEAD-44D2-9BA4-BCA6670B62C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C9771-8167-4FEC-BE60-0BC617E0424E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="-83" windowWidth="21766" windowHeight="12946" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9279" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9533" uniqueCount="2087">
   <si>
     <t>id</t>
   </si>
@@ -6253,6 +6253,146 @@
   </si>
   <si>
     <t>textattr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defaultequip1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defaultequip2</t>
+  </si>
+  <si>
+    <t>Defaultequip3</t>
+  </si>
+  <si>
+    <t>Defaultequip4</t>
+  </si>
+  <si>
+    <t>Defaultequip5</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hitpoints</t>
+  </si>
+  <si>
+    <t>Firepower</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armorpenetration</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Torpedoaccuracy</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>Los</t>
+  </si>
+  <si>
+    <t>Concealment</t>
+  </si>
+  <si>
+    <t>Firingrange</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Torpedo</t>
+  </si>
+  <si>
+    <t>Antiair</t>
+  </si>
+  <si>
+    <t>Asw</t>
+  </si>
+  <si>
+    <t>Antiland</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Equipslots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6601,14 +6741,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O944"/>
+  <dimension ref="A1:AJ944"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6625,7 +6765,7 @@
     <col min="13" max="16384" width="8.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,8 +6790,74 @@
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6694,8 +6900,74 @@
       <c r="N2" s="4" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O2" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>169411328</v>
       </c>
@@ -6739,7 +7011,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>186188544</v>
       </c>
@@ -6783,7 +7055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>202965760</v>
       </c>
@@ -6827,7 +7099,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>253105920</v>
       </c>
@@ -6871,7 +7143,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>253105921</v>
       </c>
@@ -6915,7 +7187,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>269549825</v>
       </c>
@@ -6958,8 +7230,20 @@
       <c r="N8" s="4" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O8" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>269549826</v>
       </c>
@@ -7002,8 +7286,20 @@
       <c r="N9" s="4" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O9" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>269549827</v>
       </c>
@@ -7046,8 +7342,20 @@
       <c r="N10" s="4" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O10" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>269549828</v>
       </c>
@@ -7090,8 +7398,20 @@
       <c r="N11" s="4" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O11" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>269550081</v>
       </c>
@@ -7134,8 +7454,20 @@
       <c r="N12" s="4" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O12" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>269550082</v>
       </c>
@@ -7178,8 +7510,20 @@
       <c r="N13" s="4" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O13" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>269550083</v>
       </c>
@@ -7222,9 +7566,20 @@
       <c r="N14" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O14" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>269550087</v>
       </c>
@@ -7267,8 +7622,20 @@
       <c r="N15" s="4" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O15" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>269550089</v>
       </c>
@@ -7311,8 +7678,20 @@
       <c r="N16" s="4" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>269550090</v>
       </c>
@@ -7355,8 +7734,20 @@
       <c r="N17" s="4" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>269550337</v>
       </c>
@@ -7399,8 +7790,20 @@
       <c r="N18" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>269550338</v>
       </c>
@@ -7443,8 +7846,20 @@
       <c r="N19" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>269550339</v>
       </c>
@@ -7487,8 +7902,20 @@
       <c r="N20" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O20" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>269550593</v>
       </c>
@@ -7531,8 +7958,20 @@
       <c r="N21" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O21" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>269550596</v>
       </c>
@@ -7575,8 +8014,20 @@
       <c r="N22" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>269550597</v>
       </c>
@@ -7619,8 +8070,20 @@
       <c r="N23" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>269550598</v>
       </c>
@@ -7663,8 +8126,20 @@
       <c r="N24" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O24" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>269550849</v>
       </c>
@@ -7707,8 +8182,20 @@
       <c r="N25" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O25" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>269550860</v>
       </c>
@@ -7751,8 +8238,20 @@
       <c r="N26" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>269551106</v>
       </c>
@@ -7795,8 +8294,20 @@
       <c r="N27" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O27" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>269551115</v>
       </c>
@@ -7839,8 +8350,20 @@
       <c r="N28" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>269551119</v>
       </c>
@@ -7883,8 +8406,20 @@
       <c r="N29" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O29" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>269615361</v>
       </c>
@@ -7928,7 +8463,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>269615362</v>
       </c>
@@ -7972,7 +8507,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>269615363</v>
       </c>
@@ -18576,7 +19111,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>271976449</v>
       </c>
@@ -18620,7 +19155,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272041732</v>
       </c>
@@ -18664,7 +19199,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>272041738</v>
       </c>
@@ -18708,7 +19243,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>272701514</v>
       </c>
@@ -18751,8 +19286,14 @@
       <c r="N276" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O276" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="P276" s="4" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>272762880</v>
       </c>
@@ -18796,7 +19337,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>272762992</v>
       </c>
@@ -18840,7 +19381,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>272763098</v>
       </c>
@@ -18884,7 +19425,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>272763099</v>
       </c>
@@ -18928,7 +19469,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>272828161</v>
       </c>
@@ -18972,7 +19513,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>272828165</v>
       </c>
@@ -19016,7 +19557,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>272828167</v>
       </c>
@@ -19060,7 +19601,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>272828290</v>
       </c>
@@ -19104,7 +19645,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>272861185</v>
       </c>
@@ -19148,7 +19689,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>272893441</v>
       </c>
@@ -19192,7 +19733,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>272893445</v>
       </c>
@@ -19236,7 +19777,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>272893699</v>
       </c>
@@ -20688,7 +21229,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>275065090</v>
       </c>
@@ -20732,7 +21273,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>275252481</v>
       </c>
@@ -20776,7 +21317,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>275941633</v>
       </c>
@@ -20820,7 +21361,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>275973377</v>
       </c>
@@ -20864,7 +21405,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>276108289</v>
       </c>
@@ -20908,7 +21449,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>278070273</v>
       </c>
@@ -20952,7 +21493,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>279136257</v>
       </c>
@@ -20996,7 +21537,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>280167937</v>
       </c>
@@ -21040,7 +21581,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>537985281</v>
       </c>
@@ -21083,8 +21624,24 @@
       <c r="N329" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O329" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P329" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q329" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R329" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S329" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T329" s="4"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>537985282</v>
       </c>
@@ -21127,8 +21684,24 @@
       <c r="N330" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O330" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P330" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q330" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R330" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S330" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T330" s="4"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>537985283</v>
       </c>
@@ -21171,8 +21744,24 @@
       <c r="N331" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O331" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P331" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q331" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R331" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S331" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T331" s="4"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>537985284</v>
       </c>
@@ -21215,8 +21804,24 @@
       <c r="N332" s="4" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O332" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P332" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q332" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R332" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S332" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T332" s="4"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>537985537</v>
       </c>
@@ -21259,8 +21864,24 @@
       <c r="N333" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O333" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P333" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q333" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R333" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S333" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T333" s="4"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>537985538</v>
       </c>
@@ -21303,8 +21924,24 @@
       <c r="N334" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O334" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P334" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q334" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R334" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S334" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T334" s="4"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>537985539</v>
       </c>
@@ -21347,8 +21984,24 @@
       <c r="N335" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O335" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P335" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q335" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R335" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S335" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T335" s="4"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>537985543</v>
       </c>
@@ -21391,8 +22044,24 @@
       <c r="N336" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O336" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P336" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q336" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R336" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S336" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T336" s="4"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>537985545</v>
       </c>
@@ -21435,8 +22104,24 @@
       <c r="N337" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O337" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P337" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q337" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R337" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S337" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T337" s="4"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>537985546</v>
       </c>
@@ -21479,8 +22164,24 @@
       <c r="N338" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O338" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P338" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q338" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R338" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S338" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T338" s="4"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>537985793</v>
       </c>
@@ -21523,8 +22224,24 @@
       <c r="N339" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O339" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P339" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q339" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R339" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S339" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T339" s="4"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>537985794</v>
       </c>
@@ -21567,8 +22284,24 @@
       <c r="N340" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O340" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P340" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q340" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R340" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S340" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T340" s="4"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>537985795</v>
       </c>
@@ -21612,8 +22345,24 @@
       <c r="N341" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O341" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P341" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q341" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R341" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S341" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T341" s="4"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>537986049</v>
       </c>
@@ -21656,8 +22405,24 @@
       <c r="N342" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O342" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P342" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q342" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R342" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S342" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T342" s="4"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>537986052</v>
       </c>
@@ -21700,8 +22465,24 @@
       <c r="N343" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O343" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P343" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q343" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R343" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S343" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T343" s="4"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>537986053</v>
       </c>
@@ -21744,8 +22525,24 @@
       <c r="N344" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O344" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P344" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q344" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R344" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S344" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T344" s="4"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>537986054</v>
       </c>
@@ -21788,8 +22585,24 @@
       <c r="N345" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O345" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P345" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q345" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R345" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S345" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T345" s="4"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>537986305</v>
       </c>
@@ -21832,8 +22645,24 @@
       <c r="N346" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O346" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P346" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q346" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R346" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S346" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T346" s="4"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>537986316</v>
       </c>
@@ -21877,8 +22706,24 @@
       <c r="N347" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O347" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P347" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q347" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R347" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S347" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T347" s="4"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>537986562</v>
       </c>
@@ -21921,8 +22766,24 @@
       <c r="N348" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O348" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P348" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q348" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R348" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S348" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T348" s="4"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>537986571</v>
       </c>
@@ -21966,8 +22827,24 @@
       <c r="N349" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O349" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P349" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q349" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R349" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S349" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T349" s="4"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>537986575</v>
       </c>
@@ -22010,8 +22887,24 @@
       <c r="N350" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O350" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P350" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q350" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R350" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S350" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T350" s="4"/>
+    </row>
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>538050817</v>
       </c>
@@ -22055,7 +22948,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>538050818</v>
       </c>
@@ -31956,7 +32849,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A577" s="1">
         <v>540148993</v>
       </c>
@@ -32000,7 +32893,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A578" s="1">
         <v>540148994</v>
       </c>
@@ -32044,7 +32937,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A579" s="1">
         <v>540148995</v>
       </c>
@@ -32088,7 +32981,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A580" s="1">
         <v>540148996</v>
       </c>
@@ -32132,7 +33025,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A581" s="1">
         <v>540215041</v>
       </c>
@@ -32176,7 +33069,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A582" s="1">
         <v>540215042</v>
       </c>
@@ -32220,7 +33113,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A583" s="1">
         <v>540280577</v>
       </c>
@@ -32264,7 +33157,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A584" s="1">
         <v>540280579</v>
       </c>
@@ -32308,7 +33201,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A585" s="1">
         <v>540349697</v>
       </c>
@@ -32352,7 +33245,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A586" s="1">
         <v>540354562</v>
       </c>
@@ -32396,7 +33289,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A587" s="1">
         <v>540354564</v>
       </c>
@@ -32440,7 +33333,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A588" s="1">
         <v>540411905</v>
       </c>
@@ -32484,7 +33377,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A589" s="1">
         <v>540477188</v>
       </c>
@@ -32528,7 +33421,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A590" s="1">
         <v>540477194</v>
       </c>
@@ -32572,7 +33465,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A591" s="1">
         <v>541136970</v>
       </c>
@@ -32615,8 +33508,14 @@
       <c r="N591" s="4" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O591" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="P591" s="4" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A592" s="1">
         <v>541198336</v>
       </c>
@@ -34773,7 +35672,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A641" s="1">
         <v>546505729</v>
       </c>
@@ -34817,7 +35716,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A642" s="1">
         <v>547555329</v>
       </c>
@@ -34861,7 +35760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A643" s="1">
         <v>548603393</v>
       </c>
@@ -34905,7 +35804,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A644" s="1">
         <v>562203136</v>
       </c>
@@ -34949,7 +35848,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A645" s="1">
         <v>574752768</v>
       </c>
@@ -34993,7 +35892,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A646" s="1">
         <v>574948865</v>
       </c>
@@ -35037,7 +35936,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A647" s="1">
         <v>722601996</v>
       </c>
@@ -35081,7 +35980,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A648" s="1">
         <v>722601997</v>
       </c>
@@ -35125,7 +36024,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A649" s="1">
         <v>756176910</v>
       </c>
@@ -35169,7 +36068,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A650" s="1">
         <v>756181003</v>
       </c>
@@ -35213,7 +36112,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A651" s="1">
         <v>806421772</v>
       </c>
@@ -35256,8 +36155,24 @@
       <c r="N651" s="4" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O651" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P651" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="Q651" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R651" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S651" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T651" s="4"/>
+    </row>
+    <row r="652" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A652" s="1">
         <v>806487041</v>
       </c>
@@ -35301,7 +36216,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A653" s="1">
         <v>806487045</v>
       </c>
@@ -35345,7 +36260,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A654" s="1">
         <v>806487057</v>
       </c>
@@ -35389,7 +36304,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A655" s="1">
         <v>806487058</v>
       </c>
@@ -35433,7 +36348,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="A656" s="1">
         <v>806487061</v>
       </c>
@@ -40405,7 +41320,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A769" s="1">
         <v>806888449</v>
       </c>
@@ -40449,7 +41364,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A770" s="1">
         <v>806945281</v>
       </c>
@@ -40493,7 +41408,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A771" s="1">
         <v>807536385</v>
       </c>
@@ -40537,7 +41452,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A772" s="1">
         <v>807536387</v>
       </c>
@@ -40581,7 +41496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A773" s="1">
         <v>807741441</v>
       </c>
@@ -40625,7 +41540,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A774" s="1">
         <v>808716033</v>
       </c>
@@ -40669,7 +41584,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A775" s="1">
         <v>808785153</v>
       </c>
@@ -40713,7 +41628,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A776" s="1">
         <v>809572426</v>
       </c>
@@ -40756,8 +41671,17 @@
       <c r="N776" s="4" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O776" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="P776" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="Q776" s="4" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="777" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A777" s="1">
         <v>809650176</v>
       </c>
@@ -40801,7 +41725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A778" s="1">
         <v>809907475</v>
       </c>
@@ -40845,7 +41769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A779" s="1">
         <v>809928706</v>
       </c>
@@ -40889,7 +41813,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A780" s="1">
         <v>811936001</v>
       </c>
@@ -40933,7 +41857,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A781" s="1">
         <v>812778530</v>
       </c>
@@ -40977,7 +41901,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A782" s="1">
         <v>812979201</v>
       </c>
@@ -41021,7 +41945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A783" s="1">
         <v>816007169</v>
       </c>
@@ -41065,7 +41989,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A784" s="1">
         <v>818087685</v>
       </c>

--- a/doc/ship/Ship.xlsx
+++ b/doc/ship/Ship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C921697-7731-48BF-99B9-B491AAF632D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB0560-CD73-451B-A5E1-9725F5F8CA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8034,10 +8034,10 @@
   <dimension ref="A1:XFD954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N429" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A792" sqref="A792"/>
-      <selection pane="bottomRight" activeCell="M300" sqref="M300"/>
+      <selection pane="bottomRight" activeCell="M453" sqref="M453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -44796,7 +44796,7 @@
         <v>171</v>
       </c>
       <c r="M433" s="1" t="s">
-        <v>46</v>
+        <v>2279</v>
       </c>
       <c r="N433" s="3" t="s">
         <v>1038</v>
@@ -46889,7 +46889,7 @@
         <v>166</v>
       </c>
       <c r="M453" s="1" t="s">
-        <v>495</v>
+        <v>2322</v>
       </c>
       <c r="N453" s="3" t="s">
         <v>110</v>
